--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="#玩家" sheetId="2" r:id="rId1"/>
+    <sheet name="#怪物" sheetId="3" r:id="rId2"/>
+    <sheet name="#NPC" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,6 +60,27 @@
   <si>
     <t>模型级别</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>NPC</t>
   </si>
 </sst>
 </file>
@@ -437,79 +460,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
     </row>

--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,38 +30,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓洛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路飞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山鸡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,6 +49,71 @@
   </si>
   <si>
     <t>NPC</t>
+  </si>
+  <si>
+    <t>模型路径</t>
+  </si>
+  <si>
+    <t>AvatarPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelScale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar路径</t>
+  </si>
+  <si>
+    <t>模型缩放</t>
+  </si>
+  <si>
+    <t>qinyun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianying</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_xinmo_10001</t>
+  </si>
+  <si>
+    <t>小莫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_xinmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 七号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihao_10001</t>
+  </si>
+  <si>
+    <t>qihao</t>
   </si>
 </sst>
 </file>
@@ -460,82 +493,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -546,56 +617,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -607,56 +705,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="#玩家" sheetId="2" r:id="rId1"/>
-    <sheet name="#怪物" sheetId="3" r:id="rId2"/>
-    <sheet name="#NPC" sheetId="4" r:id="rId3"/>
+    <sheet name="#基类" sheetId="5" r:id="rId1"/>
+    <sheet name="#玩家" sheetId="2" r:id="rId2"/>
+    <sheet name="#怪物" sheetId="3" r:id="rId3"/>
+    <sheet name="#NPC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,10 +81,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tianying</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>青云</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,14 +103,37 @@
     <t>boss_xinmo</t>
   </si>
   <si>
-    <t xml:space="preserve"> 七号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>qihao_10001</t>
   </si>
   <si>
     <t>qihao</t>
+  </si>
+  <si>
+    <t>玩家模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型</t>
+  </si>
+  <si>
+    <t>qinyun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianyin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,9 +515,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,7 +703,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -577,7 +720,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -594,16 +737,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -615,12 +758,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,16 +824,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -703,12 +846,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,16 +913,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>

--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#基类" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,10 +73,6 @@
     <t>模型缩放</t>
   </si>
   <si>
-    <t>qinyun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>guiwang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,12 +99,6 @@
     <t>boss_xinmo</t>
   </si>
   <si>
-    <t>qihao_10001</t>
-  </si>
-  <si>
-    <t>qihao</t>
-  </si>
-  <si>
     <t>玩家模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,10 +106,6 @@
     <t>基础类型</t>
   </si>
   <si>
-    <t>qinyun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,6 +119,23 @@
   </si>
   <si>
     <t>tianyin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingyun</t>
+  </si>
+  <si>
+    <t>qingyun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_qihao</t>
+  </si>
+  <si>
+    <t>npc_qihao_10001</t>
+  </si>
+  <si>
+    <t>npc_qihao_10001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,14 +518,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -578,16 +582,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -595,16 +599,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -612,16 +616,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -703,16 +707,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -720,16 +724,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -737,16 +741,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -824,16 +828,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -850,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,16 +917,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>

--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#基类" sheetId="5" r:id="rId1"/>
@@ -522,14 +522,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -642,19 +642,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -770,12 +770,12 @@
       <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -826,7 +826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -854,17 +854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -898,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -915,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>

--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="#基类" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -137,6 +137,24 @@
   <si>
     <t>npc_qihao_10001</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BodyRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BodyHeight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞体半径</t>
+  </si>
+  <si>
+    <t>碰撞体高度</t>
   </si>
 </sst>
 </file>
@@ -516,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -527,9 +545,10 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +564,14 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,8 +587,14 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,8 +610,14 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -596,8 +633,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -613,8 +656,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -629,6 +678,12 @@
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -640,11 +695,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -652,9 +707,11 @@
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +727,14 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,8 +750,14 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,8 +773,14 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -721,8 +796,14 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -738,8 +819,14 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -754,6 +841,12 @@
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -764,18 +857,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="F1" sqref="F1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,8 +885,14 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,8 +908,14 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -825,8 +931,14 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -841,6 +953,12 @@
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F1" sqref="F1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -863,9 +981,10 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,8 +1000,14 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -898,8 +1023,14 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -915,8 +1046,14 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -931,6 +1068,12 @@
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
